--- a/data/instruments.xlsx
+++ b/data/instruments.xlsx
@@ -13,41 +13,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
   <si>
     <t>Strings</t>
   </si>
   <si>
+    <t>Kielisoittimet</t>
+  </si>
+  <si>
     <t>Percussions</t>
   </si>
   <si>
+    <t>Lyömäsoittimet</t>
+  </si>
+  <si>
     <t>Keys</t>
   </si>
   <si>
+    <t>Kosketinsoittimet</t>
+  </si>
+  <si>
     <t>Wind Instruments</t>
   </si>
   <si>
+    <t>Puhallinsoittimet</t>
+  </si>
+  <si>
     <t>Vocals</t>
   </si>
   <si>
+    <t>Laulu</t>
+  </si>
+  <si>
     <t>Other Skills</t>
   </si>
   <si>
+    <t>Muut Taidot</t>
+  </si>
+  <si>
     <t>Acoustic Guitar</t>
   </si>
   <si>
+    <t>Akustinen kitara</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ashiko </t>
   </si>
   <si>
     <t>Accordion</t>
   </si>
   <si>
+    <t>Harmonikka</t>
+  </si>
+  <si>
     <t>Alphorn</t>
   </si>
   <si>
+    <t>Alppitorvi</t>
+  </si>
+  <si>
     <t>Background Vocals</t>
   </si>
   <si>
+    <t>Taustalaulu</t>
+  </si>
+  <si>
     <t>DJ</t>
   </si>
   <si>
@@ -63,238 +99,433 @@
     <t xml:space="preserve">Alto flute </t>
   </si>
   <si>
+    <t>Alttohuilu</t>
+  </si>
+  <si>
     <t>Baritone</t>
   </si>
   <si>
+    <t>Baritoni</t>
+  </si>
+  <si>
     <t>Arragement</t>
   </si>
   <si>
+    <t>Sovittaminen/sovitus</t>
+  </si>
+  <si>
     <t>Autoharp</t>
   </si>
   <si>
     <t xml:space="preserve">Bass drum </t>
   </si>
   <si>
+    <t>Bassorumpu</t>
+  </si>
+  <si>
     <t>Celesta</t>
   </si>
   <si>
     <t>Bagpipe</t>
   </si>
   <si>
+    <t>Säkkipilli</t>
+  </si>
+  <si>
     <t>Bass</t>
   </si>
   <si>
+    <t>Basso</t>
+  </si>
+  <si>
     <t>Audio engineer</t>
   </si>
   <si>
+    <t>Audioinsinööri</t>
+  </si>
+  <si>
     <t>Acoustic Bass</t>
   </si>
   <si>
+    <t>Akustinen Basso</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bell </t>
   </si>
   <si>
+    <t>Kello</t>
+  </si>
+  <si>
     <t xml:space="preserve">Clavichord </t>
   </si>
   <si>
+    <t>Klavikordilla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bamboo flute </t>
   </si>
   <si>
+    <t>Bambuhuilu</t>
+  </si>
+  <si>
     <t>Beatboxing</t>
   </si>
   <si>
+    <t>Beatboxaus</t>
+  </si>
+  <si>
     <t>Composing</t>
   </si>
   <si>
+    <t>Säveltäminen</t>
+  </si>
+  <si>
     <t>Balalaika</t>
   </si>
   <si>
     <t xml:space="preserve">Bongo drum </t>
   </si>
   <si>
+    <t>Bongorummut</t>
+  </si>
+  <si>
     <t>Clavinet</t>
   </si>
   <si>
+    <t>Klavinetti</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baroque trumpet </t>
   </si>
   <si>
+    <t>Barokkitrumpetti</t>
+  </si>
+  <si>
     <t>Contralto</t>
   </si>
   <si>
+    <t>Kontra-altto</t>
+  </si>
+  <si>
     <t>Conductor</t>
   </si>
   <si>
+    <t>Kapellimestari</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banhu </t>
   </si>
   <si>
+    <t>Banhu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Castanet </t>
   </si>
   <si>
+    <t>Kastanjetit</t>
+  </si>
+  <si>
     <t>Concertina</t>
   </si>
   <si>
     <t xml:space="preserve">Bass flute </t>
   </si>
   <si>
+    <t>Bassohuilu</t>
+  </si>
+  <si>
     <t>Countertenor</t>
   </si>
   <si>
+    <t>Kontratenori</t>
+  </si>
+  <si>
     <t>Gig mixer</t>
   </si>
   <si>
     <t>Banjo</t>
   </si>
   <si>
+    <t xml:space="preserve">Celesta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulcitone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bass oboe </t>
+  </si>
+  <si>
+    <t>Basso-oboe</t>
+  </si>
+  <si>
+    <t>Mezzo-soprano</t>
+  </si>
+  <si>
+    <t>Mezzosopraano</t>
+  </si>
+  <si>
+    <t>Gig selling</t>
+  </si>
+  <si>
+    <t>Keikkamyynti</t>
+  </si>
+  <si>
+    <t>Baritone Guitar</t>
+  </si>
+  <si>
+    <t>Baritonikitara</t>
+  </si>
+  <si>
     <t xml:space="preserve">Claves </t>
   </si>
   <si>
-    <t xml:space="preserve">Dulcitone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bass oboe </t>
-  </si>
-  <si>
-    <t>Mezzo-soprano</t>
-  </si>
-  <si>
-    <t>Gig selling</t>
-  </si>
-  <si>
-    <t>Baritone Guitar</t>
+    <t>Electric piano</t>
+  </si>
+  <si>
+    <t>Sähköpiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bass trumpet </t>
+  </si>
+  <si>
+    <t>Bassotrumpetti</t>
+  </si>
+  <si>
+    <t>Rapping</t>
+  </si>
+  <si>
+    <t>Räppääminen</t>
+  </si>
+  <si>
+    <t>Lyrics</t>
+  </si>
+  <si>
+    <t>Sanoitus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baryton </t>
+  </si>
+  <si>
+    <t>Baryton</t>
   </si>
   <si>
     <t xml:space="preserve">Conga </t>
   </si>
   <si>
-    <t>Electric piano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bass trumpet </t>
-  </si>
-  <si>
-    <t>Rapping</t>
-  </si>
-  <si>
-    <t>Lyrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baryton </t>
+    <t>Electronic Organ</t>
+  </si>
+  <si>
+    <t>Sähköurut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bassoon </t>
+  </si>
+  <si>
+    <t>Fagotti</t>
+  </si>
+  <si>
+    <t>Rhyming</t>
+  </si>
+  <si>
+    <t>Riimittely</t>
+  </si>
+  <si>
+    <t>Mastering</t>
+  </si>
+  <si>
+    <t>Masterointi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazantar </t>
+  </si>
+  <si>
+    <t>Bazantar</t>
   </si>
   <si>
     <t xml:space="preserve">Cymbal </t>
   </si>
   <si>
-    <t>Electronic Organ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bassoon </t>
-  </si>
-  <si>
-    <t>Rhyming</t>
-  </si>
-  <si>
-    <t>Mastering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazantar </t>
+    <t>Symbaalit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand piano </t>
+  </si>
+  <si>
+    <t>Flyygeli</t>
+  </si>
+  <si>
+    <t>Bazooka</t>
+  </si>
+  <si>
+    <t>Singing</t>
+  </si>
+  <si>
+    <t>Mixing</t>
+  </si>
+  <si>
+    <t>Miksaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowed psaltery </t>
   </si>
   <si>
     <t xml:space="preserve">Dabakan </t>
   </si>
   <si>
-    <t xml:space="preserve">Grand piano </t>
-  </si>
-  <si>
-    <t>Bazooka</t>
-  </si>
-  <si>
-    <t>Singing</t>
-  </si>
-  <si>
-    <t>Mixing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowed psaltery </t>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombard </t>
+  </si>
+  <si>
+    <t>Soprano</t>
+  </si>
+  <si>
+    <t>Sopraano</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>Tuotanto/tuottaja</t>
+  </si>
+  <si>
+    <t>Cavaquinho</t>
   </si>
   <si>
     <t xml:space="preserve">Djembe </t>
   </si>
   <si>
-    <t>Hammond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bombard </t>
-  </si>
-  <si>
-    <t>Soprano</t>
-  </si>
-  <si>
-    <t>Producer</t>
-  </si>
-  <si>
-    <t>Cavaquinho</t>
+    <t>Hammond Organ</t>
+  </si>
+  <si>
+    <t>Hammond-urut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buisine </t>
+  </si>
+  <si>
+    <t>Tenor</t>
+  </si>
+  <si>
+    <t>Tenori</t>
+  </si>
+  <si>
+    <t>Recording Studio</t>
+  </si>
+  <si>
+    <t>Äänitysstudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cello </t>
+  </si>
+  <si>
+    <t>Sello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drum </t>
+  </si>
+  <si>
+    <t>Rumpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harmonium </t>
+  </si>
+  <si>
+    <t>Harmoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claghorn </t>
+  </si>
+  <si>
+    <t>Sampler</t>
+  </si>
+  <si>
+    <t>Sampleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chanzy </t>
   </si>
   <si>
     <t xml:space="preserve">Drums </t>
   </si>
   <si>
-    <t xml:space="preserve">Harmonium </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buisine </t>
-  </si>
-  <si>
-    <t>Tenor</t>
-  </si>
-  <si>
-    <t>Recording Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cello </t>
+    <t>Rummut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harpsichord </t>
+  </si>
+  <si>
+    <t>Cembalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarinet </t>
+  </si>
+  <si>
+    <t>Klarinetti</t>
+  </si>
+  <si>
+    <t>Songwriting</t>
+  </si>
+  <si>
+    <t>Biisien kirjoitus</t>
+  </si>
+  <si>
+    <t>Classical Guitar</t>
+  </si>
+  <si>
+    <t>Klassinen kitara</t>
   </si>
   <si>
     <t xml:space="preserve">Electronic drum </t>
   </si>
   <si>
-    <t xml:space="preserve">Harpsichord </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claghorn </t>
-  </si>
-  <si>
-    <t>Sampler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chanzy </t>
+    <t>Sähkörummut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard bass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarion </t>
+  </si>
+  <si>
+    <t>Clarino</t>
+  </si>
+  <si>
+    <t>Video production</t>
+  </si>
+  <si>
+    <t>Videotuotanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crwth </t>
   </si>
   <si>
     <t xml:space="preserve">Flexatone </t>
   </si>
   <si>
-    <t xml:space="preserve">Keyboard bass </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarinet </t>
-  </si>
-  <si>
-    <t>Songwriting</t>
-  </si>
-  <si>
-    <t>Classical Guitar</t>
+    <t xml:space="preserve">Keyboard controller </t>
+  </si>
+  <si>
+    <t>Conch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahu </t>
   </si>
   <si>
     <t xml:space="preserve">Ganza </t>
   </si>
   <si>
-    <t xml:space="preserve">Keyboard controller </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarion </t>
-  </si>
-  <si>
-    <t>Video production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crwth </t>
+    <t>Marimba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contra-alto flute </t>
+  </si>
+  <si>
+    <t>Kontra-alttohuilu</t>
+  </si>
+  <si>
+    <t>Dan Bau</t>
   </si>
   <si>
     <t xml:space="preserve">Gong </t>
@@ -303,10 +534,13 @@
     <t>Mellotron</t>
   </si>
   <si>
-    <t>Conch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dahu </t>
+    <t xml:space="preserve">Contrabass flute </t>
+  </si>
+  <si>
+    <t>Kontra-bassohuilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đàn gáo </t>
   </si>
   <si>
     <t xml:space="preserve">Gong bass drum </t>
@@ -315,10 +549,13 @@
     <t>Melodica</t>
   </si>
   <si>
-    <t xml:space="preserve">Contra-alto flute </t>
-  </si>
-  <si>
-    <t>Dan Bau</t>
+    <t xml:space="preserve">Contrabass oboe </t>
+  </si>
+  <si>
+    <t>Kontra-basso-oboe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilrupa </t>
   </si>
   <si>
     <t xml:space="preserve">Güiro </t>
@@ -327,10 +564,10 @@
     <t xml:space="preserve">Novachord </t>
   </si>
   <si>
-    <t xml:space="preserve">Contrabass flute </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đàn gáo </t>
+    <t xml:space="preserve">Cor anglais </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division viol </t>
   </si>
   <si>
     <t xml:space="preserve">Hand drum </t>
@@ -339,324 +576,399 @@
     <t xml:space="preserve">Ondes Martenot </t>
   </si>
   <si>
-    <t xml:space="preserve">Contrabass oboe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dilrupa </t>
+    <t xml:space="preserve">Cornett </t>
+  </si>
+  <si>
+    <t>Kornetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diyingehu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi-hat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchestron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diple </t>
+  </si>
+  <si>
+    <t>Dobro</t>
   </si>
   <si>
     <t xml:space="preserve">Long drum </t>
   </si>
   <si>
-    <t xml:space="preserve">Orchestron </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cor anglais </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division viol </t>
+    <t xml:space="preserve">Organ </t>
+  </si>
+  <si>
+    <t>Urut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double contrabass flute </t>
+  </si>
+  <si>
+    <t>Tupla kotra-bassohuilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double bass </t>
+  </si>
+  <si>
+    <t>Kontrabasso</t>
   </si>
   <si>
     <t xml:space="preserve">Maracas </t>
   </si>
   <si>
-    <t xml:space="preserve">Organ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornett </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diyingehu </t>
+    <t xml:space="preserve">Piano </t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duct flutes </t>
+  </si>
+  <si>
+    <t>Eight-string Guitar</t>
+  </si>
+  <si>
+    <t>Kahdeksankielinen kitara</t>
   </si>
   <si>
     <t xml:space="preserve">Marching percussion </t>
   </si>
   <si>
-    <t xml:space="preserve">Piano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diple </t>
-  </si>
-  <si>
-    <t>Dobro</t>
+    <t xml:space="preserve">Player piano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duduk </t>
+  </si>
+  <si>
+    <t>Electric Bass</t>
+  </si>
+  <si>
+    <t>Sähköbasso</t>
   </si>
   <si>
     <t xml:space="preserve">Marimba </t>
   </si>
   <si>
-    <t xml:space="preserve">Player piano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double contrabass flute </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double bass </t>
+    <t>Reed Organ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fife </t>
+  </si>
+  <si>
+    <t>Electric Guitar</t>
+  </si>
+  <si>
+    <t>Sähkökitara</t>
   </si>
   <si>
     <t>Membranophones</t>
   </si>
   <si>
-    <t>Reed Organ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duct flutes </t>
-  </si>
-  <si>
-    <t>Eight-string Guitar</t>
+    <t xml:space="preserve">Silent piano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fipple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erxian </t>
   </si>
   <si>
     <t xml:space="preserve">Metallophone </t>
   </si>
   <si>
-    <t xml:space="preserve">Silent piano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duduk </t>
-  </si>
-  <si>
-    <t>Electric Bass</t>
+    <t xml:space="preserve">Spinet </t>
+  </si>
+  <si>
+    <t>Fipple Flute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esraj </t>
   </si>
   <si>
     <t xml:space="preserve">Pandeiro </t>
   </si>
   <si>
-    <t xml:space="preserve">Spinet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fife </t>
-  </si>
-  <si>
-    <t>Electric Guitar</t>
+    <t xml:space="preserve">Square piano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flute </t>
+  </si>
+  <si>
+    <t>Huilu</t>
+  </si>
+  <si>
+    <t>Flamenco Guitar</t>
+  </si>
+  <si>
+    <t>Flamencokitara</t>
   </si>
   <si>
     <t xml:space="preserve">Rainstick </t>
   </si>
   <si>
-    <t xml:space="preserve">Square piano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fipple </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erxian </t>
+    <t>Synth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flûte d'amour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadulka </t>
   </si>
   <si>
     <t xml:space="preserve">Ratchet </t>
   </si>
   <si>
-    <t>Synth</t>
-  </si>
-  <si>
-    <t>Fipple Flute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esraj </t>
+    <t xml:space="preserve">Synthesizer </t>
+  </si>
+  <si>
+    <t>Syntetisaattori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaohu </t>
   </si>
   <si>
     <t xml:space="preserve">Shaker </t>
   </si>
   <si>
-    <t xml:space="preserve">Synthesizer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flute </t>
-  </si>
-  <si>
-    <t>Flamenco Guitar</t>
+    <t xml:space="preserve">Theremin </t>
+  </si>
+  <si>
+    <t>Harmonica</t>
+  </si>
+  <si>
+    <t>Huuliharppu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehu </t>
   </si>
   <si>
     <t xml:space="preserve">Silimba </t>
   </si>
   <si>
-    <t xml:space="preserve">Theremin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flûte d'amour </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gadulka </t>
+    <t xml:space="preserve">Toy piano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperbass flute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghaychak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snare drum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trautonium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish flute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goje </t>
   </si>
   <si>
     <t xml:space="preserve">Steelpan </t>
   </si>
   <si>
-    <t xml:space="preserve">Toy piano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaohu </t>
+    <t xml:space="preserve">Virginals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed trumpet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gudok </t>
   </si>
   <si>
     <t xml:space="preserve">Tabla </t>
   </si>
   <si>
-    <t xml:space="preserve">Trautonium </t>
-  </si>
-  <si>
-    <t>Harmonica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gehu </t>
+    <t>Xylophone</t>
+  </si>
+  <si>
+    <t>Ksylofoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melodica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitar </t>
+  </si>
+  <si>
+    <t>Kitara</t>
   </si>
   <si>
     <t xml:space="preserve">Tambourine </t>
   </si>
   <si>
-    <t xml:space="preserve">Virginals </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyperbass flute </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghaychak </t>
+    <t>Tamburiini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouth organ </t>
+  </si>
+  <si>
+    <t>Guitar Synthesizer</t>
+  </si>
+  <si>
+    <t>Kitarasyntikka</t>
   </si>
   <si>
     <t xml:space="preserve">Temple block </t>
   </si>
   <si>
-    <t xml:space="preserve">Irish flute </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goje </t>
+    <t xml:space="preserve">Native American flute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gusle </t>
   </si>
   <si>
     <t xml:space="preserve">Tenor drum </t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed trumpet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gudok </t>
+    <t xml:space="preserve">Natural trumpet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haegeum </t>
   </si>
   <si>
     <t xml:space="preserve">Thon-rammana </t>
   </si>
   <si>
-    <t xml:space="preserve">Mouth organ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guitar </t>
+    <t xml:space="preserve">Nose flute </t>
+  </si>
+  <si>
+    <t>Nenähuilu</t>
+  </si>
+  <si>
+    <t>Harp</t>
   </si>
   <si>
     <t xml:space="preserve">Timbales </t>
   </si>
   <si>
-    <t xml:space="preserve">Native American flute </t>
-  </si>
-  <si>
-    <t>Guitar Synthesizer</t>
+    <t xml:space="preserve">Oboe </t>
+  </si>
+  <si>
+    <t>Oboe</t>
+  </si>
+  <si>
+    <t>Harp Guitar</t>
+  </si>
+  <si>
+    <t>Harppukitara</t>
   </si>
   <si>
     <t xml:space="preserve">Timpani </t>
   </si>
   <si>
-    <t xml:space="preserve">Natural trumpet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gusle </t>
+    <t>Ocarina</t>
+  </si>
+  <si>
+    <t>Harpsichord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom-tom drum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophicleide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huluhu </t>
   </si>
   <si>
     <t xml:space="preserve">Tonbak </t>
   </si>
   <si>
-    <t xml:space="preserve">Nose flute </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haegeum </t>
+    <t xml:space="preserve">Palendag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huqin </t>
   </si>
   <si>
     <t xml:space="preserve">Triangle </t>
   </si>
   <si>
-    <t xml:space="preserve">Oboe </t>
-  </si>
-  <si>
-    <t>Harp</t>
+    <t>Triangeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piccolo </t>
+  </si>
+  <si>
+    <t>Pikkolohuilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdy gurdy </t>
   </si>
   <si>
     <t xml:space="preserve">Tubular bell </t>
   </si>
   <si>
-    <t>Ocarina</t>
-  </si>
-  <si>
-    <t>Harp Guitar</t>
+    <t xml:space="preserve">Piccolo trumpet </t>
+  </si>
+  <si>
+    <t>Pikkolotrumpetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igil </t>
   </si>
   <si>
     <t xml:space="preserve">Tuned Percussion </t>
   </si>
   <si>
-    <t xml:space="preserve">Ophicleide </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huluhu </t>
+    <t xml:space="preserve">Pipe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imzad </t>
   </si>
   <si>
     <t xml:space="preserve">Vibraphone </t>
   </si>
   <si>
-    <t xml:space="preserve">Palendag </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huqin </t>
+    <t xml:space="preserve">Pku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinghu </t>
   </si>
   <si>
     <t xml:space="preserve">Wind machine </t>
   </si>
   <si>
-    <t xml:space="preserve">Piccolo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdy gurdy </t>
+    <t xml:space="preserve">Pocket trumpet </t>
+  </si>
+  <si>
+    <t>Taskutrumpetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jouhikko </t>
   </si>
   <si>
     <t xml:space="preserve">Wood block </t>
   </si>
   <si>
-    <t xml:space="preserve">Piccolo trumpet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Igil </t>
+    <t xml:space="preserve">Pommer </t>
+  </si>
+  <si>
+    <t>Kantele</t>
   </si>
   <si>
     <t xml:space="preserve">Xylophone </t>
   </si>
   <si>
-    <t xml:space="preserve">Pipe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imzad </t>
+    <t xml:space="preserve">Rackett </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemenche </t>
   </si>
   <si>
     <t xml:space="preserve">Zendrum </t>
   </si>
   <si>
-    <t xml:space="preserve">Pku </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinghu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pocket trumpet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jouhikko </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pommer </t>
-  </si>
-  <si>
-    <t>Kantele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rackett </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kemenche </t>
-  </si>
-  <si>
     <t xml:space="preserve">Reclam de xeremies </t>
   </si>
   <si>
@@ -690,6 +1002,9 @@
     <t xml:space="preserve">Saxophone </t>
   </si>
   <si>
+    <t>Saksofoni</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lyra viol </t>
   </si>
   <si>
@@ -720,6 +1035,9 @@
     <t xml:space="preserve">Soprano flute </t>
   </si>
   <si>
+    <t>Sopraanohuilu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nyckelharpa </t>
   </si>
   <si>
@@ -744,6 +1062,9 @@
     <t xml:space="preserve">Tin whistle </t>
   </si>
   <si>
+    <t>Tinapilli</t>
+  </si>
+  <si>
     <t xml:space="preserve">Psalmodicon </t>
   </si>
   <si>
@@ -756,18 +1077,27 @@
     <t>Trombone</t>
   </si>
   <si>
+    <t>Pasuuna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rebec </t>
   </si>
   <si>
     <t>Trumpet</t>
   </si>
   <si>
+    <t>Trumpetti</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sarangi </t>
   </si>
   <si>
     <t>Tuba</t>
   </si>
   <si>
+    <t>Tuuba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sarinda </t>
   </si>
   <si>
@@ -783,6 +1113,9 @@
     <t>Seven-string Guitar</t>
   </si>
   <si>
+    <t>Seitsemänkielinen kitara</t>
+  </si>
+  <si>
     <t xml:space="preserve">Uilleann pipes </t>
   </si>
   <si>
@@ -804,6 +1137,9 @@
     <t>Whistle</t>
   </si>
   <si>
+    <t>Pilli</t>
+  </si>
+  <si>
     <t>Steel Guitar</t>
   </si>
   <si>
@@ -813,6 +1149,9 @@
     <t>Tenor Viola</t>
   </si>
   <si>
+    <t>Tenoriviulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tro </t>
   </si>
   <si>
@@ -822,6 +1161,9 @@
     <t>Twelve-string Guitar</t>
   </si>
   <si>
+    <t>12-kielinen kitara</t>
+  </si>
+  <si>
     <t>Ukulele</t>
   </si>
   <si>
@@ -835,6 +1177,9 @@
   </si>
   <si>
     <t xml:space="preserve">Viola </t>
+  </si>
+  <si>
+    <t>Viulu</t>
   </si>
   <si>
     <t xml:space="preserve">Viola bastarda </t>
@@ -937,7 +1282,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -951,6 +1296,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2069,20 +2417,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1719" style="1" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
+    <col min="15" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -2094,1572 +2449,2748 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s" s="3">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="G2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="H2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="I2" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="J2" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="K2" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="L2" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" t="s" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" t="s" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H4" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" t="s" s="4">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s" s="4">
-        <v>29</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H5" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" t="s" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>35</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" t="s" s="4">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>41</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H7" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" t="s" s="4">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s" s="4">
-        <v>47</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H8" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" t="s" s="4">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>53</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H9" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" t="s" s="4">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s" s="4">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>59</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H10" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="M10" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" t="s" s="4">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>65</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H11" t="s" s="4">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s" s="4">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s" s="4">
+        <v>105</v>
+      </c>
+      <c r="M11" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" t="s" s="4">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>71</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H12" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="I12" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s" s="4">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" t="s" s="4">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s" s="4">
-        <v>77</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H13" t="s" s="4">
+        <v>120</v>
+      </c>
+      <c r="I13" t="s" s="4">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s" s="4">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s" s="4">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s" s="4">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" t="s" s="4">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>82</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="H14" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="I14" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s" s="4">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s" s="4">
+        <v>132</v>
+      </c>
+      <c r="M14" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" t="s" s="4">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>86</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="F15" t="s" s="4">
+        <v>138</v>
+      </c>
       <c r="G15" t="s" s="4">
-        <v>87</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H15" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="I15" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="M15" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" t="s" s="4">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="F16" t="s" s="4">
+        <v>146</v>
+      </c>
       <c r="G16" t="s" s="4">
-        <v>92</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="H16" t="s" s="4">
+        <v>148</v>
+      </c>
+      <c r="I16" t="s" s="4">
+        <v>149</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" t="s" s="4">
+        <v>150</v>
+      </c>
+      <c r="M16" t="s" s="4">
+        <v>151</v>
+      </c>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" t="s" s="4">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>96</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="F17" t="s" s="4">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s" s="4">
+        <v>156</v>
+      </c>
+      <c r="H17" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="I17" t="s" s="4">
+        <v>158</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="M17" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" t="s" s="4">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="F18" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="H18" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" t="s" s="4">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>104</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="F19" t="s" s="4">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s" s="4">
+        <v>167</v>
+      </c>
+      <c r="H19" t="s" s="4">
+        <v>168</v>
+      </c>
+      <c r="I19" t="s" s="4">
+        <v>169</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" t="s" s="4">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="F20" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="H20" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="I20" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" t="s" s="4">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>112</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="F21" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="H21" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="I21" t="s" s="4">
+        <v>179</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" t="s" s="4">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>116</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="F22" t="s" s="4">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s" s="4">
+        <v>182</v>
+      </c>
+      <c r="H22" t="s" s="4">
+        <v>183</v>
+      </c>
+      <c r="I22" t="s" s="4">
+        <v>183</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" t="s" s="4">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>120</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="F23" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="H23" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="I23" t="s" s="4">
+        <v>188</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" t="s" s="4">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>124</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="F24" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="H24" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="I24" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" t="s" s="4">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s" s="4">
-        <v>128</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="F25" t="s" s="4">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s" s="4">
+        <v>196</v>
+      </c>
+      <c r="H25" t="s" s="4">
+        <v>197</v>
+      </c>
+      <c r="I25" t="s" s="4">
+        <v>198</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" t="s" s="4">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="E26" t="s" s="4">
-        <v>132</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="F26" t="s" s="4">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s" s="4">
+        <v>203</v>
+      </c>
+      <c r="H26" t="s" s="4">
+        <v>204</v>
+      </c>
+      <c r="I26" t="s" s="4">
+        <v>204</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" t="s" s="4">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="E27" t="s" s="4">
-        <v>136</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="F27" t="s" s="4">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s" s="4">
+        <v>208</v>
+      </c>
+      <c r="H27" t="s" s="4">
+        <v>209</v>
+      </c>
+      <c r="I27" t="s" s="4">
+        <v>209</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" t="s" s="4">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s" s="4">
-        <v>140</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="F28" t="s" s="4">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s" s="4">
+        <v>213</v>
+      </c>
+      <c r="H28" t="s" s="4">
+        <v>214</v>
+      </c>
+      <c r="I28" t="s" s="4">
+        <v>214</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" t="s" s="4">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>144</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="F29" t="s" s="4">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s" s="4">
+        <v>218</v>
+      </c>
+      <c r="H29" t="s" s="4">
+        <v>219</v>
+      </c>
+      <c r="I29" t="s" s="4">
+        <v>219</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" t="s" s="4">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="F30" t="s" s="4">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s" s="4">
+        <v>222</v>
+      </c>
+      <c r="H30" t="s" s="4">
+        <v>223</v>
+      </c>
+      <c r="I30" t="s" s="4">
+        <v>223</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" t="s" s="4">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s" s="4">
-        <v>152</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="F31" t="s" s="4">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s" s="4">
+        <v>226</v>
+      </c>
+      <c r="H31" t="s" s="4">
+        <v>227</v>
+      </c>
+      <c r="I31" t="s" s="4">
+        <v>228</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" t="s" s="4">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s" s="4">
-        <v>156</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="F32" t="s" s="4">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s" s="4">
+        <v>232</v>
+      </c>
+      <c r="H32" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="I32" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" t="s" s="4">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="E33" t="s" s="4">
-        <v>160</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="F33" t="s" s="4">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s" s="4">
+        <v>237</v>
+      </c>
+      <c r="H33" t="s" s="4">
+        <v>238</v>
+      </c>
+      <c r="I33" t="s" s="4">
+        <v>238</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" t="s" s="4">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s" s="4">
-        <v>164</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="F34" t="s" s="4">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s" s="4">
+        <v>241</v>
+      </c>
+      <c r="H34" t="s" s="4">
+        <v>242</v>
+      </c>
+      <c r="I34" t="s" s="4">
+        <v>243</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" t="s" s="4">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>166</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="D35" t="s" s="4">
+        <v>245</v>
+      </c>
       <c r="E35" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="F35" t="s" s="4">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s" s="4">
+        <v>246</v>
+      </c>
+      <c r="H35" t="s" s="4">
+        <v>247</v>
+      </c>
+      <c r="I35" t="s" s="4">
+        <v>247</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" t="s" s="4">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>169</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="D36" t="s" s="4">
+        <v>249</v>
+      </c>
       <c r="E36" t="s" s="4">
-        <v>170</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="F36" t="s" s="4">
+        <v>250</v>
+      </c>
+      <c r="G36" t="s" s="4">
+        <v>250</v>
+      </c>
+      <c r="H36" t="s" s="4">
+        <v>251</v>
+      </c>
+      <c r="I36" t="s" s="4">
+        <v>251</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" t="s" s="4">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>172</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="D37" t="s" s="4">
+        <v>253</v>
+      </c>
       <c r="E37" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="F37" t="s" s="4">
+        <v>254</v>
+      </c>
+      <c r="G37" t="s" s="4">
+        <v>254</v>
+      </c>
+      <c r="H37" t="s" s="4">
+        <v>255</v>
+      </c>
+      <c r="I37" t="s" s="4">
+        <v>255</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" t="s" s="4">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="D38" t="s" s="4">
+        <v>257</v>
+      </c>
       <c r="E38" t="s" s="4">
-        <v>176</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="F38" t="s" s="4">
+        <v>258</v>
+      </c>
+      <c r="G38" t="s" s="4">
+        <v>259</v>
+      </c>
+      <c r="H38" t="s" s="4">
+        <v>260</v>
+      </c>
+      <c r="I38" t="s" s="4">
+        <v>260</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" t="s" s="4">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>178</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="D39" t="s" s="4">
+        <v>263</v>
+      </c>
       <c r="E39" t="s" s="4">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
+      <c r="H39" t="s" s="4">
+        <v>265</v>
+      </c>
+      <c r="I39" t="s" s="4">
+        <v>265</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" t="s" s="4">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>181</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="D40" t="s" s="4">
+        <v>268</v>
+      </c>
       <c r="E40" t="s" s="4">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
+      <c r="H40" t="s" s="4">
+        <v>269</v>
+      </c>
+      <c r="I40" t="s" s="4">
+        <v>269</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" t="s" s="4">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="D41" t="s" s="4">
+        <v>271</v>
+      </c>
       <c r="E41" t="s" s="4">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
+      <c r="H41" t="s" s="4">
+        <v>272</v>
+      </c>
+      <c r="I41" t="s" s="4">
+        <v>272</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" t="s" s="4">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>187</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="D42" t="s" s="4">
+        <v>274</v>
+      </c>
       <c r="E42" t="s" s="4">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
+      <c r="H42" t="s" s="4">
+        <v>275</v>
+      </c>
+      <c r="I42" t="s" s="4">
+        <v>276</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" t="s" s="4">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>190</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="D43" t="s" s="4">
+        <v>278</v>
+      </c>
       <c r="E43" t="s" s="4">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
+      <c r="H43" t="s" s="4">
+        <v>279</v>
+      </c>
+      <c r="I43" t="s" s="4">
+        <v>280</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" t="s" s="4">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>193</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="D44" t="s" s="4">
+        <v>283</v>
+      </c>
       <c r="E44" t="s" s="4">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
+      <c r="H44" t="s" s="4">
+        <v>284</v>
+      </c>
+      <c r="I44" t="s" s="4">
+        <v>284</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" t="s" s="4">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>196</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D45" t="s" s="4">
+        <v>286</v>
+      </c>
       <c r="E45" t="s" s="4">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
+      <c r="H45" t="s" s="4">
+        <v>287</v>
+      </c>
+      <c r="I45" t="s" s="4">
+        <v>287</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" t="s" s="4">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>199</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="D46" t="s" s="4">
+        <v>289</v>
+      </c>
       <c r="E46" t="s" s="4">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
+      <c r="H46" t="s" s="4">
+        <v>290</v>
+      </c>
+      <c r="I46" t="s" s="4">
+        <v>290</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" t="s" s="4">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>202</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="D47" t="s" s="4">
+        <v>292</v>
+      </c>
       <c r="E47" t="s" s="4">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
+      <c r="H47" t="s" s="4">
+        <v>294</v>
+      </c>
+      <c r="I47" t="s" s="4">
+        <v>295</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" t="s" s="4">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>205</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="D48" t="s" s="4">
+        <v>297</v>
+      </c>
       <c r="E48" t="s" s="4">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
+      <c r="H48" t="s" s="4">
+        <v>298</v>
+      </c>
+      <c r="I48" t="s" s="4">
+        <v>299</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" t="s" s="4">
-        <v>207</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C49" t="s" s="4">
+        <v>300</v>
+      </c>
+      <c r="D49" t="s" s="4">
+        <v>301</v>
+      </c>
       <c r="E49" t="s" s="4">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
+      <c r="H49" t="s" s="4">
+        <v>302</v>
+      </c>
+      <c r="I49" t="s" s="4">
+        <v>302</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" t="s" s="4">
-        <v>209</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="C50" t="s" s="4">
+        <v>303</v>
+      </c>
+      <c r="D50" t="s" s="4">
+        <v>304</v>
+      </c>
       <c r="E50" t="s" s="4">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
+      <c r="H50" t="s" s="4">
+        <v>305</v>
+      </c>
+      <c r="I50" t="s" s="4">
+        <v>305</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" t="s" s="4">
-        <v>211</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C51" t="s" s="4">
+        <v>306</v>
+      </c>
+      <c r="D51" t="s" s="4">
+        <v>307</v>
+      </c>
       <c r="E51" t="s" s="4">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
+      <c r="H51" t="s" s="4">
+        <v>308</v>
+      </c>
+      <c r="I51" t="s" s="4">
+        <v>309</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="C52" t="s" s="4">
+        <v>310</v>
+      </c>
+      <c r="D52" t="s" s="4">
+        <v>311</v>
+      </c>
       <c r="E52" t="s" s="4">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
+      <c r="H52" t="s" s="4">
+        <v>312</v>
+      </c>
+      <c r="I52" t="s" s="4">
+        <v>312</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" t="s" s="4">
-        <v>215</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="C53" t="s" s="4">
+        <v>313</v>
+      </c>
+      <c r="D53" t="s" s="4">
+        <v>314</v>
+      </c>
       <c r="E53" t="s" s="4">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
+      <c r="H53" t="s" s="4">
+        <v>315</v>
+      </c>
+      <c r="I53" t="s" s="4">
+        <v>315</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" t="s" s="4">
-        <v>217</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C54" t="s" s="4">
+        <v>316</v>
+      </c>
+      <c r="D54" t="s" s="4">
+        <v>317</v>
+      </c>
       <c r="E54" t="s" s="4">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
+      <c r="H54" t="s" s="4">
+        <v>318</v>
+      </c>
+      <c r="I54" t="s" s="4">
+        <v>318</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" t="s" s="4">
-        <v>219</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="C55" t="s" s="4">
+        <v>319</v>
+      </c>
       <c r="D55" s="2"/>
-      <c r="E55" t="s" s="4">
-        <v>220</v>
-      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
+      <c r="H55" t="s" s="4">
+        <v>320</v>
+      </c>
+      <c r="I55" t="s" s="4">
+        <v>320</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" t="s" s="4">
-        <v>221</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C56" t="s" s="4">
+        <v>321</v>
+      </c>
       <c r="D56" s="2"/>
-      <c r="E56" t="s" s="4">
-        <v>222</v>
-      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
+      <c r="H56" t="s" s="4">
+        <v>322</v>
+      </c>
+      <c r="I56" t="s" s="4">
+        <v>322</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="C57" t="s" s="4">
+        <v>323</v>
+      </c>
       <c r="D57" s="2"/>
-      <c r="E57" t="s" s="4">
-        <v>224</v>
-      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
+      <c r="H57" t="s" s="4">
+        <v>324</v>
+      </c>
+      <c r="I57" t="s" s="4">
+        <v>324</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" t="s" s="4">
-        <v>225</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="C58" t="s" s="4">
+        <v>325</v>
+      </c>
       <c r="D58" s="2"/>
-      <c r="E58" t="s" s="4">
-        <v>226</v>
-      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
+      <c r="H58" t="s" s="4">
+        <v>326</v>
+      </c>
+      <c r="I58" t="s" s="4">
+        <v>326</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" t="s" s="4">
-        <v>227</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C59" t="s" s="4">
+        <v>327</v>
+      </c>
       <c r="D59" s="2"/>
-      <c r="E59" t="s" s="4">
-        <v>228</v>
-      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
+      <c r="H59" t="s" s="4">
+        <v>328</v>
+      </c>
+      <c r="I59" t="s" s="4">
+        <v>329</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" t="s" s="4">
-        <v>229</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C60" t="s" s="4">
+        <v>330</v>
+      </c>
       <c r="D60" s="2"/>
-      <c r="E60" t="s" s="4">
-        <v>230</v>
-      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
+      <c r="H60" t="s" s="4">
+        <v>331</v>
+      </c>
+      <c r="I60" t="s" s="4">
+        <v>331</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" t="s" s="4">
-        <v>231</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C61" t="s" s="4">
+        <v>332</v>
+      </c>
       <c r="D61" s="2"/>
-      <c r="E61" t="s" s="4">
-        <v>232</v>
-      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
+      <c r="H61" t="s" s="4">
+        <v>333</v>
+      </c>
+      <c r="I61" t="s" s="4">
+        <v>333</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" t="s" s="4">
-        <v>233</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C62" t="s" s="4">
+        <v>334</v>
+      </c>
       <c r="D62" s="2"/>
-      <c r="E62" t="s" s="4">
-        <v>234</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
+      <c r="H62" t="s" s="4">
+        <v>335</v>
+      </c>
+      <c r="I62" t="s" s="4">
+        <v>335</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" t="s" s="4">
-        <v>235</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="C63" t="s" s="4">
+        <v>336</v>
+      </c>
       <c r="D63" s="2"/>
-      <c r="E63" t="s" s="4">
-        <v>236</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
+      <c r="H63" t="s" s="4">
+        <v>337</v>
+      </c>
+      <c r="I63" t="s" s="4">
+        <v>337</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" t="s" s="4">
-        <v>237</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="C64" t="s" s="4">
+        <v>338</v>
+      </c>
       <c r="D64" s="2"/>
-      <c r="E64" t="s" s="4">
-        <v>238</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
+      <c r="H64" t="s" s="4">
+        <v>339</v>
+      </c>
+      <c r="I64" t="s" s="4">
+        <v>340</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" t="s" s="4">
-        <v>239</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C65" t="s" s="4">
+        <v>341</v>
+      </c>
       <c r="D65" s="2"/>
-      <c r="E65" t="s" s="4">
-        <v>240</v>
-      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
+      <c r="H65" t="s" s="4">
+        <v>342</v>
+      </c>
+      <c r="I65" t="s" s="4">
+        <v>342</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" t="s" s="4">
-        <v>241</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C66" t="s" s="4">
+        <v>343</v>
+      </c>
       <c r="D66" s="2"/>
-      <c r="E66" t="s" s="4">
-        <v>242</v>
-      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
+      <c r="H66" t="s" s="4">
+        <v>344</v>
+      </c>
+      <c r="I66" t="s" s="4">
+        <v>344</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" t="s" s="4">
-        <v>243</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="C67" t="s" s="4">
+        <v>345</v>
+      </c>
       <c r="D67" s="2"/>
-      <c r="E67" t="s" s="4">
-        <v>244</v>
-      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
+      <c r="H67" t="s" s="4">
+        <v>346</v>
+      </c>
+      <c r="I67" t="s" s="4">
+        <v>346</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" t="s" s="4">
-        <v>245</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C68" t="s" s="4">
+        <v>347</v>
+      </c>
       <c r="D68" s="2"/>
-      <c r="E68" t="s" s="4">
-        <v>246</v>
-      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
+      <c r="H68" t="s" s="4">
+        <v>348</v>
+      </c>
+      <c r="I68" t="s" s="4">
+        <v>349</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>350</v>
+      </c>
       <c r="D69" s="2"/>
-      <c r="E69" t="s" s="4">
-        <v>248</v>
-      </c>
+      <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
+      <c r="H69" t="s" s="4">
+        <v>351</v>
+      </c>
+      <c r="I69" t="s" s="4">
+        <v>351</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" t="s" s="4">
-        <v>249</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="C70" t="s" s="4">
+        <v>352</v>
+      </c>
       <c r="D70" s="2"/>
-      <c r="E70" t="s" s="4">
-        <v>250</v>
-      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
+      <c r="H70" t="s" s="4">
+        <v>353</v>
+      </c>
+      <c r="I70" t="s" s="4">
+        <v>354</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" t="s" s="4">
-        <v>251</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="C71" t="s" s="4">
+        <v>355</v>
+      </c>
       <c r="D71" s="2"/>
-      <c r="E71" t="s" s="4">
-        <v>252</v>
-      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
+      <c r="H71" t="s" s="4">
+        <v>356</v>
+      </c>
+      <c r="I71" t="s" s="4">
+        <v>357</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" t="s" s="4">
-        <v>253</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="C72" t="s" s="4">
+        <v>358</v>
+      </c>
       <c r="D72" s="2"/>
-      <c r="E72" t="s" s="4">
-        <v>254</v>
-      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
+      <c r="H72" t="s" s="4">
+        <v>359</v>
+      </c>
+      <c r="I72" t="s" s="4">
+        <v>360</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" t="s" s="4">
-        <v>255</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C73" t="s" s="4">
+        <v>361</v>
+      </c>
       <c r="D73" s="2"/>
-      <c r="E73" t="s" s="4">
-        <v>256</v>
-      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
+      <c r="H73" t="s" s="4">
+        <v>362</v>
+      </c>
+      <c r="I73" t="s" s="4">
+        <v>362</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" t="s" s="4">
-        <v>257</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C74" t="s" s="4">
+        <v>363</v>
+      </c>
       <c r="D74" s="2"/>
-      <c r="E74" t="s" s="4">
-        <v>258</v>
-      </c>
+      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
+      <c r="H74" t="s" s="4">
+        <v>364</v>
+      </c>
+      <c r="I74" t="s" s="4">
+        <v>364</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" t="s" s="4">
-        <v>259</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="C75" t="s" s="4">
+        <v>366</v>
+      </c>
       <c r="D75" s="2"/>
-      <c r="E75" t="s" s="4">
-        <v>260</v>
-      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
+      <c r="H75" t="s" s="4">
+        <v>367</v>
+      </c>
+      <c r="I75" t="s" s="4">
+        <v>367</v>
+      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" t="s" s="4">
-        <v>261</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="C76" t="s" s="4">
+        <v>368</v>
+      </c>
       <c r="D76" s="2"/>
-      <c r="E76" t="s" s="4">
-        <v>262</v>
-      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
+      <c r="H76" t="s" s="4">
+        <v>369</v>
+      </c>
+      <c r="I76" t="s" s="4">
+        <v>369</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" t="s" s="4">
-        <v>263</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="C77" t="s" s="4">
+        <v>370</v>
+      </c>
       <c r="D77" s="2"/>
-      <c r="E77" t="s" s="4">
-        <v>264</v>
-      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
+      <c r="H77" t="s" s="4">
+        <v>371</v>
+      </c>
+      <c r="I77" t="s" s="4">
+        <v>371</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" t="s" s="4">
-        <v>265</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="C78" t="s" s="4">
+        <v>372</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
+      <c r="H78" t="s" s="4">
+        <v>373</v>
+      </c>
+      <c r="I78" t="s" s="4">
+        <v>374</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" t="s" s="4">
-        <v>266</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C79" t="s" s="4">
+        <v>375</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
+      <c r="H79" t="s" s="4">
+        <v>376</v>
+      </c>
+      <c r="I79" t="s" s="4">
+        <v>376</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" t="s" s="4">
-        <v>267</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="C80" t="s" s="4">
+        <v>378</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" t="s" s="4">
-        <v>268</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="C81" t="s" s="4">
+        <v>379</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" t="s" s="4">
-        <v>269</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="C82" t="s" s="4">
+        <v>380</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" t="s" s="4">
-        <v>270</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C83" t="s" s="4">
+        <v>382</v>
+      </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" t="s" s="4">
-        <v>271</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="C84" t="s" s="4">
+        <v>383</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" t="s" s="4">
-        <v>272</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="C85" t="s" s="4">
+        <v>384</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" t="s" s="4">
-        <v>273</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="C86" t="s" s="4">
+        <v>385</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" t="s" s="4">
-        <v>274</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="C87" t="s" s="4">
+        <v>386</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" t="s" s="4">
-        <v>275</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C88" t="s" s="4">
+        <v>388</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" t="s" s="4">
-        <v>276</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="C89" t="s" s="4">
+        <v>389</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" t="s" s="4">
-        <v>277</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="C90" t="s" s="4">
+        <v>390</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C91" t="s" s="4">
+        <v>391</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" t="s" s="4">
-        <v>279</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C92" t="s" s="4">
+        <v>392</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" t="s" s="4">
-        <v>280</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="C93" t="s" s="4">
+        <v>393</v>
+      </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" t="s" s="4">
-        <v>281</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C94" t="s" s="4">
+        <v>394</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" t="s" s="4">
-        <v>282</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C95" t="s" s="4">
+        <v>395</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="B96" t="s" s="4">
+        <v>396</v>
+      </c>
+      <c r="C96" t="s" s="4">
+        <v>396</v>
+      </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="A97" s="2"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="2"/>
+      <c r="B97" t="s" s="4">
+        <v>397</v>
+      </c>
+      <c r="C97" t="s" s="4">
+        <v>397</v>
+      </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-    </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="A102" s="2"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="A103" s="2"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="A107" s="2"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="2"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" ht="15" customHeight="1">
-      <c r="A109" s="2"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" ht="15" customHeight="1">
-      <c r="A110" s="2"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" ht="15" customHeight="1">
-      <c r="A111" s="2"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" ht="15" customHeight="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3671,101 +5202,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.85156" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="5" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3858,4 +5294,99 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.85156" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="7" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/instruments.xlsx
+++ b/data/instruments.xlsx
@@ -1248,7 +1248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1263,16 +1263,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,23 +1282,20 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1324,8 +1321,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1476,9 +1473,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1558,7 +1555,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1586,10 +1583,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1845,9 +1842,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -2135,7 +2132,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2163,10 +2160,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3026,12 +3023,10 @@
       <c r="I15" t="s" s="4">
         <v>140</v>
       </c>
-      <c r="J15" t="s" s="5">
+      <c r="J15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="K15" t="s" s="5">
-        <v>11</v>
-      </c>
+      <c r="K15" s="4"/>
       <c r="L15" t="s" s="4">
         <v>141</v>
       </c>
@@ -5202,6 +5197,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.85156" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="5" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5294,99 +5384,4 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.85156" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="7" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/data/instruments.xlsx
+++ b/data/instruments.xlsx
@@ -3026,7 +3026,9 @@
       <c r="J15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" t="s" s="4">
+        <v>11</v>
+      </c>
       <c r="L15" t="s" s="4">
         <v>141</v>
       </c>
